--- a/Data/symptoms_data_big.xlsx
+++ b/Data/symptoms_data_big.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelcosta/Desktop/PBL/PBL-HGO-1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351FC9FC-DBA4-614F-807A-887997698E16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA86FA1-C19F-2340-8C53-9113562987B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{A0B4D592-6103-064C-85FB-ADE9417CBC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D350B1-E576-1545-B9DC-25CF8B4E6A38}">
   <dimension ref="A1:K218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/symptoms_data_big.xlsx
+++ b/Data/symptoms_data_big.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/miguelcosta/Desktop/PBL/PBL-HGO-1/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA86FA1-C19F-2340-8C53-9113562987B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836864AD-FC39-6A40-889F-AA671B8209DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{A0B4D592-6103-064C-85FB-ADE9417CBC70}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1093,8 +1093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3D350B1-E576-1545-B9DC-25CF8B4E6A38}">
   <dimension ref="A1:K218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M42" sqref="M42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
